--- a/biology/Botanique/Sesamum/Sesamum.xlsx
+++ b/biology/Botanique/Sesamum/Sesamum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sesamum est un genre de plantes de la famille des Pedaliaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,13 +551,15 @@
           <t>Liste des espèces, variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (7 août 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (7 août 2017) :
 Sesamum alatum Thonn.
 Sesamum indicum L.
 Sesamum radiatum Schumacher
-Selon GRIN            (7 août 2017)[3] :
+Selon GRIN            (7 août 2017) :
 Sesamum alatum Thonn.
 Sesamum angolense Welw.
 Sesamum angustifolium (Oliv.) Engl.
@@ -555,11 +571,11 @@
 Sesamum radiatum Schumach.
 Sesamum schinzianum Asch.
 Sesamum triphyllum Welw. ex Asch.
-Selon ITIS      (7 août 2017)[4] :
+Selon ITIS      (7 août 2017) :
 Sesamum alatum Thonn.
 Sesamum indicum L.
 Sesamum radiatum Schumach.
-Selon NCBI  (7 août 2017)[5] :
+Selon NCBI  (7 août 2017) :
 Sesamum abbreviatum
 Sesamum alatum
 Sesamum capense
@@ -575,7 +591,7 @@
 Sesamum schenckii
 Sesamum schinzianum
 Sesamum triphyllum
-Selon The Plant List            (7 août 2017)[6] :
+Selon The Plant List            (7 août 2017) :
 Sesamum abbreviatum Merxm.
 Sesamum alatum Thonn.
 Sesamum angolense Welw.
@@ -602,7 +618,7 @@
 Sesamum somalense Chiov.
 Sesamum thonneri De Wild. &amp; T. Durand
 Sesamum triphyllum Welw. ex Asch.
-Selon Tropicos                                           (7 août 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 août 2017) (Attention liste brute contenant possiblement des synonymes) :
 Sesamum abbreviatum Merxm.
 Sesamum africanum Tod.
 Sesamum alatum Thonn.
